--- a/public/doc/journal.xlsx
+++ b/public/doc/journal.xlsx
@@ -15,38 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Логист</t>
   </si>
   <si>
-    <t>№ заявки, перевозчик</t>
-  </si>
-  <si>
-    <t>№ заявки, клиент</t>
+    <t>№ заявки</t>
   </si>
   <si>
     <t>Заказчик (Юр. лицо), клиент</t>
   </si>
   <si>
-    <t>Дата заявки</t>
-  </si>
-  <si>
-    <t>Дата погрузки</t>
-  </si>
-  <si>
-    <t>Дата разгрузки</t>
-  </si>
-  <si>
     <t>Актуальная дата разгрузки</t>
   </si>
   <si>
-    <t>ТТН</t>
-  </si>
-  <si>
-    <t>ТТН отправлено</t>
-  </si>
-  <si>
     <t>Название клиента</t>
   </si>
   <si>
@@ -59,43 +41,28 @@
     <t>Общая сумма</t>
   </si>
   <si>
-    <t>Сумма без НДС</t>
-  </si>
-  <si>
-    <t>НДС</t>
-  </si>
-  <si>
     <t>Фактическая сумма оплаты</t>
   </si>
   <si>
+    <t>Остаток оплаты</t>
+  </si>
+  <si>
+    <t>Условия оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты (клиент)</t>
+  </si>
+  <si>
     <t>Название перевозчика</t>
   </si>
   <si>
-    <t xml:space="preserve">Номер счета и дата </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер УПД и дата </t>
+    <t>Заказчик (Юр. лицо), перевозчик</t>
   </si>
   <si>
     <t xml:space="preserve">Общая сумма </t>
   </si>
   <si>
-    <t xml:space="preserve">Сумма без НДС </t>
-  </si>
-  <si>
-    <t xml:space="preserve">НДС </t>
-  </si>
-  <si>
-    <t>Доход</t>
-  </si>
-  <si>
-    <t>Чистая прибыль</t>
-  </si>
-  <si>
-    <t>Маржа з.п.</t>
-  </si>
-  <si>
-    <t>Налог на прибыль</t>
+    <t>Дата оплаты (перевозчик)</t>
   </si>
   <si>
     <t>Доп. затраты С НДС</t>
@@ -110,7 +77,76 @@
     <t>Доп. затраты информация</t>
   </si>
   <si>
-    <t>Статус по перевозчику</t>
+    <t>Александр Александров</t>
+  </si>
+  <si>
+    <t>1006/1</t>
+  </si>
+  <si>
+    <t>ООО Либеро Логистика</t>
+  </si>
+  <si>
+    <t>26.11.2025</t>
+  </si>
+  <si>
+    <t>Клиент 4(1111111111) (Сканы счет/акт)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Оплата на р/с с НДС.&lt;br&gt;По факту выгрузки ТС и оригиналам&lt;br&gt;документов 1-3 банковских дней.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>28.11.2025</t>
+  </si>
+  <si>
+    <t>Тест (1234567)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Оплата на р/с Б/НДС.&lt;br&gt;По факту выгрузки ТС и оригиналам документов 1-7&lt;br&gt;банковских дней.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страховка (Б/НДС - 500) </t>
+  </si>
+  <si>
+    <t>23.10.2025</t>
+  </si>
+  <si>
+    <t>27.10.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рохля (НАЛ - 5000) Страховка (Б/НДС - 500) </t>
+  </si>
+  <si>
+    <t>Иван Иванов</t>
+  </si>
+  <si>
+    <t>10.08.2025</t>
+  </si>
+  <si>
+    <t>12.08.2025</t>
+  </si>
+  <si>
+    <t>Перевозчк 1 (72345578931)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Оплата на р/с Б/НДС в течение 4-11 БД по оригиналам: договор-заявка, закрывающие (Счет, акт, УПД, С/Ф) и сопроводительные документы (ТТН, ТрН и др.)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>04.08.2025</t>
+  </si>
+  <si>
+    <t>Лучший клиент(1111111111) (Сканы счет/акт)</t>
+  </si>
+  <si>
+    <t>06.08.2025</t>
+  </si>
+  <si>
+    <t>07.08.2025</t>
+  </si>
+  <si>
+    <t>11.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грузчики (С НДС - 5000) Страховка (Б/НДС - 500) </t>
   </si>
 </sst>
 </file>
@@ -450,7 +486,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,58 +541,337 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="H2">
+        <v>140000.0</v>
+      </c>
+      <c r="I2">
+        <v>140000.0</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>100000.0</v>
+      </c>
+      <c r="Q2">
+        <v>100000.0</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="U2">
+        <v>500.0</v>
+      </c>
+      <c r="W2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>140000.0</v>
+      </c>
+      <c r="I3">
+        <v>140000.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>100000.0</v>
+      </c>
+      <c r="Q3">
+        <v>100000.0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3">
+        <v>500.0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>140000.0</v>
+      </c>
+      <c r="I4">
+        <v>140000.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>100000.0</v>
+      </c>
+      <c r="Q4">
+        <v>100000.0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4">
+        <v>500.0</v>
+      </c>
+      <c r="V4">
+        <v>5000.0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1032</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>115000.0</v>
+      </c>
+      <c r="I5">
+        <v>150000.0</v>
+      </c>
+      <c r="J5">
+        <v>-35000.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>100000.0</v>
+      </c>
+      <c r="Q5">
+        <v>100000.0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5">
+        <v>500.0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>1009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>150000.0</v>
+      </c>
+      <c r="I6">
+        <v>150000.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>100000.0</v>
+      </c>
+      <c r="Q6">
+        <v>100000.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6">
+        <v>500.0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1008</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>150000.0</v>
+      </c>
+      <c r="I7">
+        <v>150000.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>105000.0</v>
+      </c>
+      <c r="Q7">
+        <v>105000.0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7">
+        <v>5000.0</v>
+      </c>
+      <c r="U7">
+        <v>500.0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
